--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf18-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf18-Fgfr4.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7403513333333334</v>
+        <v>0.350653</v>
       </c>
       <c r="H2">
-        <v>2.221054</v>
+        <v>1.051959</v>
       </c>
       <c r="I2">
-        <v>0.09083790882557785</v>
+        <v>0.04536179359243143</v>
       </c>
       <c r="J2">
-        <v>0.09083790882557784</v>
+        <v>0.04536179359243143</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4279076666666666</v>
+        <v>0.789222</v>
       </c>
       <c r="N2">
-        <v>1.283723</v>
+        <v>2.367666</v>
       </c>
       <c r="O2">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="P2">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="Q2">
-        <v>0.3168020115602222</v>
+        <v>0.276743061966</v>
       </c>
       <c r="R2">
-        <v>2.851218104042</v>
+        <v>2.490687557694</v>
       </c>
       <c r="S2">
-        <v>0.001801354451331075</v>
+        <v>0.0006087234548485707</v>
       </c>
       <c r="T2">
-        <v>0.001801354451331075</v>
+        <v>0.0006087234548485707</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7403513333333334</v>
+        <v>0.350653</v>
       </c>
       <c r="H3">
-        <v>2.221054</v>
+        <v>1.051959</v>
       </c>
       <c r="I3">
-        <v>0.09083790882557785</v>
+        <v>0.04536179359243143</v>
       </c>
       <c r="J3">
-        <v>0.09083790882557784</v>
+        <v>0.04536179359243143</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.890544</v>
       </c>
       <c r="O3">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="P3">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="Q3">
-        <v>0.2197718125973333</v>
+        <v>0.104090641744</v>
       </c>
       <c r="R3">
-        <v>1.977946313376</v>
+        <v>0.9368157756960001</v>
       </c>
       <c r="S3">
-        <v>0.001249635161562254</v>
+        <v>0.0002289575558269898</v>
       </c>
       <c r="T3">
-        <v>0.001249635161562254</v>
+        <v>0.0002289575558269898</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7403513333333334</v>
+        <v>0.350653</v>
       </c>
       <c r="H4">
-        <v>2.221054</v>
+        <v>1.051959</v>
       </c>
       <c r="I4">
-        <v>0.09083790882557785</v>
+        <v>0.04536179359243143</v>
       </c>
       <c r="J4">
-        <v>0.09083790882557784</v>
+        <v>0.04536179359243143</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.78097133333333</v>
+        <v>57.61405833333333</v>
       </c>
       <c r="N4">
-        <v>62.342914</v>
+        <v>172.842175</v>
       </c>
       <c r="O4">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="P4">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="Q4">
-        <v>15.38521983459511</v>
+        <v>20.20254239675834</v>
       </c>
       <c r="R4">
-        <v>138.466978511356</v>
+        <v>181.822881570825</v>
       </c>
       <c r="S4">
-        <v>0.08748124450746027</v>
+        <v>0.04443746960489413</v>
       </c>
       <c r="T4">
-        <v>0.08748124450746025</v>
+        <v>0.04443746960489413</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7403513333333334</v>
+        <v>0.350653</v>
       </c>
       <c r="H5">
-        <v>2.221054</v>
+        <v>1.051959</v>
       </c>
       <c r="I5">
-        <v>0.09083790882557785</v>
+        <v>0.04536179359243143</v>
       </c>
       <c r="J5">
-        <v>0.09083790882557784</v>
+        <v>0.04536179359243143</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07261233333333333</v>
+        <v>0.1123343333333333</v>
       </c>
       <c r="N5">
-        <v>0.217837</v>
+        <v>0.337003</v>
       </c>
       <c r="O5">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="P5">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="Q5">
-        <v>0.05375863779977778</v>
+        <v>0.03939037098633334</v>
       </c>
       <c r="R5">
-        <v>0.483827740198</v>
+        <v>0.354513338877</v>
       </c>
       <c r="S5">
-        <v>0.0003056747052242637</v>
+        <v>8.664297686174185E-05</v>
       </c>
       <c r="T5">
-        <v>0.0003056747052242636</v>
+        <v>8.664297686174186E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>19.672098</v>
       </c>
       <c r="I6">
-        <v>0.8045604674770771</v>
+        <v>0.8482855786262421</v>
       </c>
       <c r="J6">
-        <v>0.8045604674770771</v>
+        <v>0.8482855786262421</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.4279076666666666</v>
+        <v>0.789222</v>
       </c>
       <c r="N6">
-        <v>1.283723</v>
+        <v>2.367666</v>
       </c>
       <c r="O6">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="P6">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="Q6">
-        <v>2.805947184539333</v>
+        <v>5.175217509251999</v>
       </c>
       <c r="R6">
-        <v>25.253524660854</v>
+        <v>46.57695758326799</v>
       </c>
       <c r="S6">
-        <v>0.01595477701096918</v>
+        <v>0.01138339750758314</v>
       </c>
       <c r="T6">
-        <v>0.01595477701096918</v>
+        <v>0.01138339750758314</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>19.672098</v>
       </c>
       <c r="I7">
-        <v>0.8045604674770771</v>
+        <v>0.8482855786262421</v>
       </c>
       <c r="J7">
-        <v>0.8045604674770771</v>
+        <v>0.8482855786262421</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>0.890544</v>
       </c>
       <c r="O7">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="P7">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="Q7">
         <v>1.946540982368</v>
@@ -883,10 +883,10 @@
         <v>17.518868841312</v>
       </c>
       <c r="S7">
-        <v>0.01106814393639168</v>
+        <v>0.00428160743533637</v>
       </c>
       <c r="T7">
-        <v>0.01106814393639168</v>
+        <v>0.00428160743533637</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>19.672098</v>
       </c>
       <c r="I8">
-        <v>0.8045604674770771</v>
+        <v>0.8482855786262421</v>
       </c>
       <c r="J8">
-        <v>0.8045604674770771</v>
+        <v>0.8482855786262421</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.78097133333333</v>
+        <v>57.61405833333333</v>
       </c>
       <c r="N8">
-        <v>62.342914</v>
+        <v>172.842175</v>
       </c>
       <c r="O8">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="P8">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="Q8">
-        <v>136.2684348681746</v>
+        <v>377.7964672370166</v>
       </c>
       <c r="R8">
-        <v>1226.415913813572</v>
+        <v>3400.16820513315</v>
       </c>
       <c r="S8">
-        <v>0.7748301550132143</v>
+        <v>0.8310003117417109</v>
       </c>
       <c r="T8">
-        <v>0.7748301550132143</v>
+        <v>0.8310003117417109</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>19.672098</v>
       </c>
       <c r="I9">
-        <v>0.8045604674770771</v>
+        <v>0.8482855786262421</v>
       </c>
       <c r="J9">
-        <v>0.8045604674770771</v>
+        <v>0.8482855786262421</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.07261233333333333</v>
+        <v>0.1123343333333333</v>
       </c>
       <c r="N9">
-        <v>0.217837</v>
+        <v>0.337003</v>
       </c>
       <c r="O9">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="P9">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="Q9">
-        <v>0.4761456457806666</v>
+        <v>0.7366173380326665</v>
       </c>
       <c r="R9">
-        <v>4.285310812025999</v>
+        <v>6.629556042293999</v>
       </c>
       <c r="S9">
-        <v>0.002707391516501997</v>
+        <v>0.001620261941611715</v>
       </c>
       <c r="T9">
-        <v>0.002707391516501997</v>
+        <v>0.001620261941611715</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7048623333333333</v>
+        <v>0.7457606666666666</v>
       </c>
       <c r="H10">
-        <v>2.114587</v>
+        <v>2.237282</v>
       </c>
       <c r="I10">
-        <v>0.08648356190788345</v>
+        <v>0.09647441040198541</v>
       </c>
       <c r="J10">
-        <v>0.08648356190788344</v>
+        <v>0.09647441040198541</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.4279076666666666</v>
+        <v>0.789222</v>
       </c>
       <c r="N10">
-        <v>1.283723</v>
+        <v>2.367666</v>
       </c>
       <c r="O10">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="P10">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="Q10">
-        <v>0.3016159963778888</v>
+        <v>0.588570724868</v>
       </c>
       <c r="R10">
-        <v>2.714543967401</v>
+        <v>5.297136523811999</v>
       </c>
       <c r="S10">
-        <v>0.00171500589592906</v>
+        <v>0.001294618923846386</v>
       </c>
       <c r="T10">
-        <v>0.00171500589592906</v>
+        <v>0.001294618923846386</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7048623333333333</v>
+        <v>0.7457606666666666</v>
       </c>
       <c r="H11">
-        <v>2.114587</v>
+        <v>2.237282</v>
       </c>
       <c r="I11">
-        <v>0.08648356190788345</v>
+        <v>0.09647441040198541</v>
       </c>
       <c r="J11">
-        <v>0.08648356190788344</v>
+        <v>0.09647441040198541</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>0.890544</v>
       </c>
       <c r="O11">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="P11">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="Q11">
-        <v>0.2092369739253333</v>
+        <v>0.2213775623786667</v>
       </c>
       <c r="R11">
-        <v>1.883132765328</v>
+        <v>1.992398061408</v>
       </c>
       <c r="S11">
-        <v>0.001189733463203705</v>
+        <v>0.0004869416188422926</v>
       </c>
       <c r="T11">
-        <v>0.001189733463203704</v>
+        <v>0.0004869416188422926</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7048623333333333</v>
+        <v>0.7457606666666666</v>
       </c>
       <c r="H12">
-        <v>2.114587</v>
+        <v>2.237282</v>
       </c>
       <c r="I12">
-        <v>0.08648356190788345</v>
+        <v>0.09647441040198541</v>
       </c>
       <c r="J12">
-        <v>0.08648356190788344</v>
+        <v>0.09647441040198541</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.78097133333333</v>
+        <v>57.61405833333333</v>
       </c>
       <c r="N12">
-        <v>62.342914</v>
+        <v>172.842175</v>
       </c>
       <c r="O12">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="P12">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="Q12">
-        <v>14.64772394294644</v>
+        <v>42.96629855203889</v>
       </c>
       <c r="R12">
-        <v>131.829515486518</v>
+        <v>386.69668696835</v>
       </c>
       <c r="S12">
-        <v>0.08328780046738929</v>
+        <v>0.0945085795858743</v>
       </c>
       <c r="T12">
-        <v>0.08328780046738928</v>
+        <v>0.0945085795858743</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7048623333333333</v>
+        <v>0.7457606666666666</v>
       </c>
       <c r="H13">
-        <v>2.114587</v>
+        <v>2.237282</v>
       </c>
       <c r="I13">
-        <v>0.08648356190788345</v>
+        <v>0.09647441040198541</v>
       </c>
       <c r="J13">
-        <v>0.08648356190788344</v>
+        <v>0.09647441040198541</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.07261233333333333</v>
+        <v>0.1123343333333333</v>
       </c>
       <c r="N13">
-        <v>0.217837</v>
+        <v>0.337003</v>
       </c>
       <c r="O13">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="P13">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="Q13">
-        <v>0.0511816987021111</v>
+        <v>0.08377452731622222</v>
       </c>
       <c r="R13">
-        <v>0.460635288319</v>
+        <v>0.753970745846</v>
       </c>
       <c r="S13">
-        <v>0.0002910220813613987</v>
+        <v>0.0001842702734224352</v>
       </c>
       <c r="T13">
-        <v>0.0002910220813613986</v>
+        <v>0.0001842702734224352</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1476666666666666</v>
+        <v>0.07636</v>
       </c>
       <c r="H14">
-        <v>0.4429999999999999</v>
+        <v>0.22908</v>
       </c>
       <c r="I14">
-        <v>0.01811806178946166</v>
+        <v>0.009878217379341012</v>
       </c>
       <c r="J14">
-        <v>0.01811806178946166</v>
+        <v>0.009878217379341012</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.4279076666666666</v>
+        <v>0.789222</v>
       </c>
       <c r="N14">
-        <v>1.283723</v>
+        <v>2.367666</v>
       </c>
       <c r="O14">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="P14">
-        <v>0.0198304262462706</v>
+        <v>0.01341929863527565</v>
       </c>
       <c r="Q14">
-        <v>0.06318769877777776</v>
+        <v>0.06026499192</v>
       </c>
       <c r="R14">
-        <v>0.5686892889999999</v>
+        <v>0.54238492728</v>
       </c>
       <c r="S14">
-        <v>0.000359288888041293</v>
+        <v>0.000132558748997547</v>
       </c>
       <c r="T14">
-        <v>0.000359288888041293</v>
+        <v>0.000132558748997547</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1476666666666666</v>
+        <v>0.07636</v>
       </c>
       <c r="H15">
-        <v>0.4429999999999999</v>
+        <v>0.22908</v>
       </c>
       <c r="I15">
-        <v>0.01811806178946166</v>
+        <v>0.009878217379341012</v>
       </c>
       <c r="J15">
-        <v>0.01811806178946166</v>
+        <v>0.009878217379341012</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>0.890544</v>
       </c>
       <c r="O15">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="P15">
-        <v>0.01375675835913107</v>
+        <v>0.005047365584441773</v>
       </c>
       <c r="Q15">
-        <v>0.04383455466666666</v>
+        <v>0.02266731328</v>
       </c>
       <c r="R15">
-        <v>0.3945109919999999</v>
+        <v>0.20400581952</v>
       </c>
       <c r="S15">
-        <v>0.0002492457979734298</v>
+        <v>4.985897443612043E-05</v>
       </c>
       <c r="T15">
-        <v>0.0002492457979734298</v>
+        <v>4.985897443612043E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1476666666666666</v>
+        <v>0.07636</v>
       </c>
       <c r="H16">
-        <v>0.4429999999999999</v>
+        <v>0.22908</v>
       </c>
       <c r="I16">
-        <v>0.01811806178946166</v>
+        <v>0.009878217379341012</v>
       </c>
       <c r="J16">
-        <v>0.01811806178946166</v>
+        <v>0.009878217379341012</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.78097133333333</v>
+        <v>57.61405833333333</v>
       </c>
       <c r="N16">
-        <v>62.342914</v>
+        <v>172.842175</v>
       </c>
       <c r="O16">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="P16">
-        <v>0.9630477587879871</v>
+        <v>0.9796232927683105</v>
       </c>
       <c r="Q16">
-        <v>3.068656766888888</v>
+        <v>4.399409494333333</v>
       </c>
       <c r="R16">
-        <v>27.617910902</v>
+        <v>39.594685449</v>
       </c>
       <c r="S16">
-        <v>0.01744855879992332</v>
+        <v>0.009676931835831192</v>
       </c>
       <c r="T16">
-        <v>0.01744855879992332</v>
+        <v>0.009676931835831192</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1476666666666666</v>
+        <v>0.07636</v>
       </c>
       <c r="H17">
-        <v>0.4429999999999999</v>
+        <v>0.22908</v>
       </c>
       <c r="I17">
-        <v>0.01811806178946166</v>
+        <v>0.009878217379341012</v>
       </c>
       <c r="J17">
-        <v>0.01811806178946166</v>
+        <v>0.009878217379341012</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.07261233333333333</v>
+        <v>0.1123343333333333</v>
       </c>
       <c r="N17">
-        <v>0.217837</v>
+        <v>0.337003</v>
       </c>
       <c r="O17">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="P17">
-        <v>0.003365056606611278</v>
+        <v>0.001910043011972043</v>
       </c>
       <c r="Q17">
-        <v>0.01072242122222222</v>
+        <v>0.008577849693333332</v>
       </c>
       <c r="R17">
-        <v>0.09650179099999999</v>
+        <v>0.07720064724</v>
       </c>
       <c r="S17">
-        <v>6.096830352361931E-05</v>
+        <v>1.886782007615108E-05</v>
       </c>
       <c r="T17">
-        <v>6.096830352361931E-05</v>
+        <v>1.886782007615109E-05</v>
       </c>
     </row>
   </sheetData>
